--- a/data/trans_orig/P36B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C9855BE-5921-4288-8AFE-FAC0D59E4B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD83F81E-C4D9-41E4-A00D-26C8E4942EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{17739335-32D3-4106-8BCF-CFF2DA0BD1D5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63EE4DAD-06F5-4CDD-BD69-A21F81DFA35F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="493">
-  <si>
-    <t>Población según la frecuencia de consumición de legumbres en 2007 (Tasa respuesta: 99,94%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="491">
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,1432 +76,1429 @@
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2015 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de legumbres en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>0,0%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
   </si>
   <si>
     <t>13,05%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>58,33%</t>
   </si>
   <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>60,22%</t>
   </si>
   <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>25,72%</t>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>24,29%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>55,28%</t>
   </si>
   <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
   </si>
   <si>
     <t>54,86%</t>
   </si>
   <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
   </si>
   <si>
     <t>55,06%</t>
   </si>
   <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
   </si>
   <si>
     <t>31,4%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>2,38%</t>
@@ -1510,13 +1507,10 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71AAAF2-5938-42BE-8501-2DEE29CC0E81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333C987D-7829-4345-84A2-0E0807156F6D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2187,16 +2181,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>332</v>
@@ -2205,13 +2199,13 @@
         <v>328950</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>376</v>
@@ -2220,13 +2214,13 @@
         <v>380857</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>708</v>
@@ -2235,19 +2229,19 @@
         <v>709807</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>20</v>
@@ -2256,13 +2250,13 @@
         <v>18094</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -2271,13 +2265,13 @@
         <v>22129</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2286,13 +2280,13 @@
         <v>40223</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2301,13 @@
         <v>1030837</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2322,13 +2316,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2328</v>
@@ -2337,18 +2331,18 @@
         <v>2345950</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2360,13 +2354,13 @@
         <v>18560</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2375,13 +2369,13 @@
         <v>22263</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -2390,13 +2384,13 @@
         <v>40823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2405,13 @@
         <v>236977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>154</v>
@@ -2426,13 +2420,13 @@
         <v>156375</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>387</v>
@@ -2441,13 +2435,13 @@
         <v>393351</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,13 +2456,13 @@
         <v>1009886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>982</v>
@@ -2477,13 +2471,13 @@
         <v>1001712</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>1967</v>
@@ -2492,19 +2486,19 @@
         <v>2011599</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>390</v>
@@ -2513,13 +2507,13 @@
         <v>405021</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>374</v>
@@ -2528,13 +2522,13 @@
         <v>384468</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>764</v>
@@ -2543,19 +2537,19 @@
         <v>789489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>23</v>
@@ -2564,13 +2558,13 @@
         <v>22968</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -2579,13 +2573,13 @@
         <v>19633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -2594,13 +2588,13 @@
         <v>42601</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2609,13 @@
         <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1551</v>
@@ -2630,13 +2624,13 @@
         <v>1584450</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3200</v>
@@ -2645,18 +2639,18 @@
         <v>3277863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2668,13 +2662,13 @@
         <v>7893</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2683,13 +2677,13 @@
         <v>8495</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2698,13 +2692,13 @@
         <v>16388</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2713,13 @@
         <v>92737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -2734,13 +2728,13 @@
         <v>43398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -2749,13 +2743,13 @@
         <v>136135</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2764,13 @@
         <v>342426</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>304</v>
@@ -2785,13 +2779,13 @@
         <v>320438</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>634</v>
@@ -2800,19 +2794,19 @@
         <v>662865</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>95</v>
@@ -2821,13 +2815,13 @@
         <v>102164</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -2836,13 +2830,13 @@
         <v>98089</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>188</v>
@@ -2851,19 +2845,19 @@
         <v>200253</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -2872,13 +2866,13 @@
         <v>6187</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2887,13 +2881,13 @@
         <v>5993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -2902,13 +2896,13 @@
         <v>12179</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2917,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -2938,13 +2932,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -2953,13 +2947,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2970,13 @@
         <v>38277</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -2991,13 +2985,13 @@
         <v>47430</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -3006,7 +3000,7 @@
         <v>85707</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>154</v>
@@ -3033,7 +3027,7 @@
         <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>295</v>
@@ -3042,13 +3036,13 @@
         <v>301649</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>705</v>
@@ -3057,13 +3051,13 @@
         <v>718141</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3072,13 @@
         <v>1937504</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>2064</v>
@@ -3093,13 +3087,13 @@
         <v>2115729</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>3966</v>
@@ -3108,19 +3102,19 @@
         <v>4053232</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>817</v>
@@ -3129,13 +3123,13 @@
         <v>836135</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>843</v>
@@ -3144,13 +3138,13 @@
         <v>863413</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>1660</v>
@@ -3159,19 +3153,19 @@
         <v>1699549</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>48</v>
@@ -3180,10 +3174,10 @@
         <v>47249</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>183</v>
@@ -3195,13 +3189,13 @@
         <v>47754</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="M26" s="7">
         <v>95</v>
@@ -3210,13 +3204,13 @@
         <v>95003</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3225,13 @@
         <v>3275658</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3294</v>
@@ -3246,13 +3240,13 @@
         <v>3375975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6507</v>
@@ -3261,18 +3255,18 @@
         <v>6651632</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +3285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1CEE0B-8089-417D-A2AF-BDF4CF603983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DADFAB-7889-44B3-9B92-62631C29A865}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3308,7 +3302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3415,13 +3409,13 @@
         <v>12405</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3430,13 +3424,13 @@
         <v>12811</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -3445,13 +3439,13 @@
         <v>25215</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3460,13 @@
         <v>68385</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -3481,13 +3475,13 @@
         <v>82443</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
         <v>139</v>
@@ -3496,13 +3490,13 @@
         <v>150828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3511,13 @@
         <v>599566</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H6" s="7">
         <v>767</v>
@@ -3532,13 +3526,13 @@
         <v>821728</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M6" s="7">
         <v>1325</v>
@@ -3547,19 +3541,19 @@
         <v>1421295</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>249</v>
@@ -3568,13 +3562,13 @@
         <v>265072</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
         <v>348</v>
@@ -3583,13 +3577,13 @@
         <v>373415</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
         <v>597</v>
@@ -3598,19 +3592,19 @@
         <v>638487</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>24</v>
@@ -3619,13 +3613,13 @@
         <v>26334</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -3634,13 +3628,13 @@
         <v>42205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>64</v>
@@ -3649,10 +3643,10 @@
         <v>68539</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>230</v>
@@ -3670,13 +3664,13 @@
         <v>971762</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>1242</v>
@@ -3685,13 +3679,13 @@
         <v>1332602</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>2147</v>
@@ -3700,18 +3694,18 @@
         <v>2304364</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3723,7 +3717,7 @@
         <v>27521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>231</v>
@@ -3741,10 +3735,10 @@
         <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -3753,13 +3747,13 @@
         <v>62399</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3768,13 @@
         <v>153910</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -3789,13 +3783,13 @@
         <v>176682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>317</v>
@@ -3804,13 +3798,13 @@
         <v>330592</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3819,13 @@
         <v>1195736</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H12" s="7">
         <v>972</v>
@@ -3840,13 +3834,13 @@
         <v>1046954</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M12" s="7">
         <v>2104</v>
@@ -3855,19 +3849,19 @@
         <v>2242690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>507</v>
@@ -3876,13 +3870,13 @@
         <v>543410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>413</v>
@@ -3891,13 +3885,13 @@
         <v>442420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>920</v>
@@ -3906,19 +3900,19 @@
         <v>985830</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>39</v>
@@ -3927,13 +3921,13 @@
         <v>40279</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -3942,13 +3936,13 @@
         <v>49294</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -3957,13 +3951,13 @@
         <v>89573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3972,13 @@
         <v>1960856</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1628</v>
@@ -3993,13 +3987,13 @@
         <v>1750228</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3481</v>
@@ -4008,18 +4002,18 @@
         <v>3711084</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4031,13 +4025,13 @@
         <v>7588</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4046,13 +4040,13 @@
         <v>14185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4061,13 +4055,13 @@
         <v>21773</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4076,13 @@
         <v>59341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -4097,13 +4091,13 @@
         <v>53915</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -4112,13 +4106,13 @@
         <v>113256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4127,13 @@
         <v>289059</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H18" s="7">
         <v>268</v>
@@ -4148,13 +4142,13 @@
         <v>295817</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M18" s="7">
         <v>532</v>
@@ -4163,19 +4157,19 @@
         <v>584876</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>100</v>
@@ -4184,13 +4178,13 @@
         <v>110623</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -4199,13 +4193,13 @@
         <v>83667</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>173</v>
@@ -4214,19 +4208,19 @@
         <v>194290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -4235,13 +4229,13 @@
         <v>12540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4250,13 +4244,13 @@
         <v>9885</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>182</v>
+        <v>309</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -4265,13 +4259,13 @@
         <v>22425</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4280,13 @@
         <v>479150</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>411</v>
@@ -4301,13 +4295,13 @@
         <v>457470</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>848</v>
@@ -4316,13 +4310,13 @@
         <v>936620</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4333,13 @@
         <v>47513</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>314</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -4354,13 +4348,13 @@
         <v>61874</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>191</v>
+        <v>318</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -4369,13 +4363,13 @@
         <v>109387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4384,13 @@
         <v>281636</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>291</v>
@@ -4405,13 +4399,13 @@
         <v>313040</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>558</v>
@@ -4420,13 +4414,13 @@
         <v>594676</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4435,13 @@
         <v>2084361</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>323</v>
+        <v>36</v>
       </c>
       <c r="H24" s="7">
         <v>2007</v>
@@ -4456,13 +4450,13 @@
         <v>2164499</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>324</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M24" s="7">
         <v>3961</v>
@@ -4471,19 +4465,19 @@
         <v>4248860</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>856</v>
@@ -4492,13 +4486,13 @@
         <v>919105</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>834</v>
@@ -4507,13 +4501,13 @@
         <v>899503</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>1690</v>
@@ -4522,19 +4516,19 @@
         <v>1818608</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>73</v>
@@ -4543,13 +4537,13 @@
         <v>79153</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>272</v>
+        <v>59</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H26" s="7">
         <v>94</v>
@@ -4558,13 +4552,13 @@
         <v>101385</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M26" s="7">
         <v>167</v>
@@ -4573,13 +4567,13 @@
         <v>180538</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>110</v>
+        <v>348</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4588,13 @@
         <v>3411768</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3281</v>
@@ -4609,13 +4603,13 @@
         <v>3540300</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6476</v>
@@ -4624,18 +4618,18 @@
         <v>6952068</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4654,7 +4648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67BF960-32FE-4612-AAC7-0643E5EA40ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E5852E-397D-431C-88F5-BCF65401E86F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4671,7 +4665,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4778,13 +4772,13 @@
         <v>7395</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>183</v>
+        <v>354</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4793,13 +4787,13 @@
         <v>10304</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4808,13 +4802,13 @@
         <v>17699</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>352</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>55</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4823,13 @@
         <v>42949</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H5" s="7">
         <v>54</v>
@@ -4844,13 +4838,13 @@
         <v>61445</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
@@ -4859,13 +4853,13 @@
         <v>104394</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4874,13 @@
         <v>387128</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H6" s="7">
         <v>488</v>
@@ -4895,13 +4889,13 @@
         <v>544128</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M6" s="7">
         <v>880</v>
@@ -4910,19 +4904,19 @@
         <v>931256</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>302</v>
@@ -4931,13 +4925,13 @@
         <v>296452</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H7" s="7">
         <v>317</v>
@@ -4946,13 +4940,13 @@
         <v>351377</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M7" s="7">
         <v>619</v>
@@ -4961,19 +4955,19 @@
         <v>647828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>18</v>
@@ -4982,13 +4976,13 @@
         <v>18289</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>380</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -4997,13 +4991,13 @@
         <v>25044</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>384</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5012,13 +5006,13 @@
         <v>43333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5027,13 @@
         <v>752212</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>890</v>
@@ -5048,13 +5042,13 @@
         <v>992298</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>1650</v>
@@ -5063,18 +5057,18 @@
         <v>1744510</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5086,13 +5080,13 @@
         <v>24324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -5101,13 +5095,13 @@
         <v>36517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>390</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5116,13 +5110,13 @@
         <v>60841</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5131,13 @@
         <v>227326</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H11" s="7">
         <v>207</v>
@@ -5152,13 +5146,13 @@
         <v>214622</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M11" s="7">
         <v>419</v>
@@ -5167,13 +5161,13 @@
         <v>441948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5182,13 @@
         <v>1153534</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="H12" s="7">
         <v>1010</v>
@@ -5203,13 +5197,13 @@
         <v>1045955</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M12" s="7">
         <v>2097</v>
@@ -5218,19 +5212,19 @@
         <v>2199488</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>576</v>
@@ -5239,13 +5233,13 @@
         <v>612525</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H13" s="7">
         <v>600</v>
@@ -5254,13 +5248,13 @@
         <v>629346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M13" s="7">
         <v>1176</v>
@@ -5269,19 +5263,19 @@
         <v>1241871</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>418</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>43</v>
@@ -5290,13 +5284,13 @@
         <v>47419</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -5308,10 +5302,10 @@
         <v>420</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M14" s="7">
         <v>91</v>
@@ -5320,13 +5314,13 @@
         <v>99611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>422</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>423</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>423</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5335,13 @@
         <v>2065127</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>1899</v>
@@ -5356,13 +5350,13 @@
         <v>1978632</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>3840</v>
@@ -5371,18 +5365,18 @@
         <v>4043758</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5394,13 +5388,13 @@
         <v>2141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5409,10 +5403,10 @@
         <v>9108</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>426</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>427</v>
@@ -5424,13 +5418,13 @@
         <v>11249</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>428</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,7 +5505,7 @@
         <v>340994</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>441</v>
@@ -5532,13 +5526,13 @@
         <v>444</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>445</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>135</v>
@@ -5547,13 +5541,13 @@
         <v>146513</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>446</v>
+        <v>340</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>447</v>
+        <v>297</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H19" s="7">
         <v>115</v>
@@ -5562,13 +5556,13 @@
         <v>119025</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>447</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M19" s="7">
         <v>250</v>
@@ -5577,19 +5571,19 @@
         <v>265538</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
@@ -5598,13 +5592,13 @@
         <v>8873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>454</v>
+        <v>195</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5613,13 +5607,13 @@
         <v>6484</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -5628,13 +5622,13 @@
         <v>15357</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5643,13 @@
         <v>544137</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -5664,13 +5658,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1025</v>
@@ -5679,13 +5673,13 @@
         <v>1093278</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5696,13 @@
         <v>33860</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>460</v>
+        <v>311</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5717,13 +5711,13 @@
         <v>55929</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>461</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="M22" s="7">
         <v>84</v>
@@ -5732,13 +5726,13 @@
         <v>89788</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5747,13 @@
         <v>339468</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H23" s="7">
         <v>332</v>
@@ -5768,13 +5762,13 @@
         <v>349596</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>197</v>
+        <v>463</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M23" s="7">
         <v>645</v>
@@ -5783,13 +5777,13 @@
         <v>689064</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>467</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5798,13 @@
         <v>1858080</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H24" s="7">
         <v>1823</v>
@@ -5819,13 +5813,13 @@
         <v>1931077</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M24" s="7">
         <v>3596</v>
@@ -5834,19 +5828,19 @@
         <v>3789157</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>1013</v>
@@ -5855,13 +5849,13 @@
         <v>1055489</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H25" s="7">
         <v>1032</v>
@@ -5870,13 +5864,13 @@
         <v>1099748</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M25" s="7">
         <v>2045</v>
@@ -5885,19 +5879,19 @@
         <v>2155237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>69</v>
@@ -5906,13 +5900,13 @@
         <v>74580</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>61</v>
+        <v>485</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>262</v>
+        <v>486</v>
       </c>
       <c r="H26" s="7">
         <v>76</v>
@@ -5921,13 +5915,13 @@
         <v>83720</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>489</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>490</v>
+        <v>274</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
@@ -5936,13 +5930,13 @@
         <v>158301</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>419</v>
+        <v>227</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5951,13 @@
         <v>3361476</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>3315</v>
@@ -5972,13 +5966,13 @@
         <v>3520070</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>6515</v>
@@ -5987,18 +5981,18 @@
         <v>6881546</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD83F81E-C4D9-41E4-A00D-26C8E4942EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{917C1085-B47A-456A-B7C5-5030D1DB14B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{63EE4DAD-06F5-4CDD-BD69-A21F81DFA35F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2CA17976-5020-4F99-82A8-8A443E837BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="486">
   <si>
     <t>Población según la frecuencia de consumo de legumbres en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -76,1441 +76,1426 @@
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,71%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de legumbres en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333C987D-7829-4345-84A2-0E0807156F6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FDBE1E-9EEB-4E23-88A7-C7C04AA051EF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2214,13 +2199,13 @@
         <v>380857</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>708</v>
@@ -2229,19 +2214,19 @@
         <v>709807</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>20</v>
@@ -2250,13 +2235,13 @@
         <v>18094</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -2265,13 +2250,13 @@
         <v>22129</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2280,13 +2265,13 @@
         <v>40223</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,13 +2286,13 @@
         <v>1030837</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2316,13 +2301,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2328</v>
@@ -2331,18 +2316,18 @@
         <v>2345950</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2354,13 +2339,13 @@
         <v>18560</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2369,13 +2354,13 @@
         <v>22263</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -2384,13 +2369,13 @@
         <v>40823</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2390,13 @@
         <v>236977</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>154</v>
@@ -2420,13 +2405,13 @@
         <v>156375</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>387</v>
@@ -2435,13 +2420,13 @@
         <v>393351</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,16 +2438,16 @@
         <v>985</v>
       </c>
       <c r="D12" s="7">
-        <v>1009886</v>
+        <v>1009887</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>982</v>
@@ -2471,13 +2456,13 @@
         <v>1001712</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>1967</v>
@@ -2486,13 +2471,13 @@
         <v>2011599</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,13 +2492,13 @@
         <v>405021</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>374</v>
@@ -2522,13 +2507,13 @@
         <v>384468</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>764</v>
@@ -2537,19 +2522,19 @@
         <v>789489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>23</v>
@@ -2558,13 +2543,13 @@
         <v>22968</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -2573,13 +2558,13 @@
         <v>19633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -2588,13 +2573,13 @@
         <v>42601</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,16 +2591,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1551</v>
@@ -2624,13 +2609,13 @@
         <v>1584450</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3200</v>
@@ -2639,18 +2624,18 @@
         <v>3277863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2662,13 +2647,13 @@
         <v>7893</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2677,13 +2662,13 @@
         <v>8495</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2692,13 +2677,13 @@
         <v>16388</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,13 +2698,13 @@
         <v>92737</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -2728,13 +2713,13 @@
         <v>43398</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -2743,13 +2728,13 @@
         <v>136135</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,13 +2749,13 @@
         <v>342426</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>304</v>
@@ -2779,13 +2764,13 @@
         <v>320438</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>634</v>
@@ -2794,13 +2779,13 @@
         <v>662865</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2800,13 @@
         <v>102164</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -2830,13 +2815,13 @@
         <v>98089</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>188</v>
@@ -2845,19 +2830,19 @@
         <v>200253</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -2866,13 +2851,13 @@
         <v>6187</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2881,13 +2866,13 @@
         <v>5993</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -2896,13 +2881,13 @@
         <v>12179</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2902,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -2932,13 +2917,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -2947,13 +2932,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,10 +2955,10 @@
         <v>38277</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>150</v>
@@ -3000,13 +2985,13 @@
         <v>85707</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3006,13 @@
         <v>416492</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>295</v>
@@ -3036,13 +3021,13 @@
         <v>301649</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>705</v>
@@ -3051,13 +3036,13 @@
         <v>718141</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3057,13 @@
         <v>1937504</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>2064</v>
@@ -3087,13 +3072,13 @@
         <v>2115729</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>3966</v>
@@ -3102,13 +3087,13 @@
         <v>4053232</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3108,13 @@
         <v>836135</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>843</v>
@@ -3138,13 +3123,13 @@
         <v>863413</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>1660</v>
@@ -3153,19 +3138,19 @@
         <v>1699549</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>48</v>
@@ -3174,13 +3159,13 @@
         <v>47249</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -3189,13 +3174,13 @@
         <v>47754</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M26" s="7">
         <v>95</v>
@@ -3204,13 +3189,13 @@
         <v>95003</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,28 +3210,28 @@
         <v>3275658</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3294</v>
       </c>
       <c r="I27" s="7">
-        <v>3375975</v>
+        <v>3375974</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6507</v>
@@ -3255,13 +3240,13 @@
         <v>6651632</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DADFAB-7889-44B3-9B92-62631C29A865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93933FE5-7055-45B9-969E-80713117D1FB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3430,7 +3415,7 @@
         <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -3439,13 +3424,13 @@
         <v>25215</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3445,13 @@
         <v>68385</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -3475,13 +3460,13 @@
         <v>82443</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M5" s="7">
         <v>139</v>
@@ -3490,13 +3475,13 @@
         <v>150828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3496,13 @@
         <v>599566</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>767</v>
@@ -3526,13 +3511,13 @@
         <v>821728</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M6" s="7">
         <v>1325</v>
@@ -3541,13 +3526,13 @@
         <v>1421295</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3547,13 @@
         <v>265072</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
         <v>348</v>
@@ -3577,13 +3562,13 @@
         <v>373415</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>597</v>
@@ -3592,19 +3577,19 @@
         <v>638487</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>24</v>
@@ -3613,13 +3598,13 @@
         <v>26334</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -3628,13 +3613,13 @@
         <v>42205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>64</v>
@@ -3643,13 +3628,13 @@
         <v>68539</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3649,13 @@
         <v>971762</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>1242</v>
@@ -3679,13 +3664,13 @@
         <v>1332602</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>2147</v>
@@ -3694,18 +3679,18 @@
         <v>2304364</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3720,10 +3705,10 @@
         <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -3732,13 +3717,13 @@
         <v>34878</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -3747,13 +3732,13 @@
         <v>62399</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3753,13 @@
         <v>153910</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -3783,13 +3768,13 @@
         <v>176682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M11" s="7">
         <v>317</v>
@@ -3798,13 +3783,13 @@
         <v>330592</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3804,13 @@
         <v>1195736</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H12" s="7">
         <v>972</v>
@@ -3834,13 +3819,13 @@
         <v>1046954</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M12" s="7">
         <v>2104</v>
@@ -3849,13 +3834,13 @@
         <v>2242690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3855,13 @@
         <v>543410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H13" s="7">
         <v>413</v>
@@ -3885,13 +3870,13 @@
         <v>442420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
         <v>920</v>
@@ -3900,19 +3885,19 @@
         <v>985830</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>39</v>
@@ -3921,13 +3906,13 @@
         <v>40279</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -3936,13 +3921,13 @@
         <v>49294</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -3951,13 +3936,13 @@
         <v>89573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3957,13 @@
         <v>1960856</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1628</v>
@@ -3987,13 +3972,13 @@
         <v>1750228</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3481</v>
@@ -4002,18 +3987,18 @@
         <v>3711084</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4025,13 +4010,13 @@
         <v>7588</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4040,13 +4025,13 @@
         <v>14185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4055,13 +4040,13 @@
         <v>21773</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4061,13 @@
         <v>59341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -4091,13 +4076,13 @@
         <v>53915</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -4106,13 +4091,13 @@
         <v>113256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4112,13 @@
         <v>289059</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H18" s="7">
         <v>268</v>
@@ -4142,13 +4127,13 @@
         <v>295817</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>532</v>
@@ -4157,13 +4142,13 @@
         <v>584876</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4163,13 @@
         <v>110623</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -4193,13 +4178,13 @@
         <v>83667</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>173</v>
@@ -4208,19 +4193,19 @@
         <v>194290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>10</v>
@@ -4229,13 +4214,13 @@
         <v>12540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4244,13 +4229,13 @@
         <v>9885</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -4259,13 +4244,13 @@
         <v>22425</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4265,13 @@
         <v>479150</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>411</v>
@@ -4295,13 +4280,13 @@
         <v>457470</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>848</v>
@@ -4310,13 +4295,13 @@
         <v>936620</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4318,13 @@
         <v>47513</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -4348,13 +4333,13 @@
         <v>61874</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>62</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -4363,13 +4348,13 @@
         <v>109387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>319</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4369,13 @@
         <v>281636</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="H23" s="7">
         <v>291</v>
@@ -4399,13 +4384,13 @@
         <v>313040</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7">
         <v>558</v>
@@ -4414,13 +4399,13 @@
         <v>594676</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4420,13 @@
         <v>2084361</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>36</v>
+        <v>317</v>
       </c>
       <c r="H24" s="7">
         <v>2007</v>
@@ -4450,13 +4435,13 @@
         <v>2164499</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="M24" s="7">
         <v>3961</v>
@@ -4465,13 +4450,13 @@
         <v>4248860</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>332</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4471,13 @@
         <v>919105</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="H25" s="7">
         <v>834</v>
@@ -4501,13 +4486,13 @@
         <v>899503</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M25" s="7">
         <v>1690</v>
@@ -4516,19 +4501,19 @@
         <v>1818608</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>73</v>
@@ -4537,13 +4522,13 @@
         <v>79153</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H26" s="7">
         <v>94</v>
@@ -4552,13 +4537,13 @@
         <v>101385</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="M26" s="7">
         <v>167</v>
@@ -4567,13 +4552,13 @@
         <v>180538</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4573,13 @@
         <v>3411768</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3281</v>
@@ -4603,13 +4588,13 @@
         <v>3540300</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6476</v>
@@ -4618,13 +4603,13 @@
         <v>6952068</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,7 +4633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E5852E-397D-431C-88F5-BCF65401E86F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0471E33-1245-46E3-8076-B495DF0C848F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4665,7 +4650,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4772,13 +4757,13 @@
         <v>7395</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>354</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4787,13 +4772,13 @@
         <v>10304</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4802,13 +4787,13 @@
         <v>17699</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4808,13 @@
         <v>42949</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>359</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
         <v>54</v>
@@ -4838,13 +4823,13 @@
         <v>61445</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
@@ -4853,13 +4838,13 @@
         <v>104394</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4859,13 @@
         <v>387128</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="H6" s="7">
         <v>488</v>
@@ -4889,13 +4874,13 @@
         <v>544128</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="M6" s="7">
         <v>880</v>
@@ -4904,13 +4889,13 @@
         <v>931256</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4910,13 @@
         <v>296452</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="H7" s="7">
         <v>317</v>
@@ -4940,13 +4925,13 @@
         <v>351377</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="M7" s="7">
         <v>619</v>
@@ -4955,19 +4940,19 @@
         <v>647828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>18</v>
@@ -4976,13 +4961,13 @@
         <v>18289</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>371</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -4991,13 +4976,13 @@
         <v>25044</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>375</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -5006,13 +4991,13 @@
         <v>43333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5012,13 @@
         <v>752212</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>890</v>
@@ -5042,13 +5027,13 @@
         <v>992298</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>1650</v>
@@ -5057,18 +5042,18 @@
         <v>1744510</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5080,13 +5065,13 @@
         <v>24324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>390</v>
+        <v>98</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -5095,13 +5080,13 @@
         <v>36517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5110,13 +5095,13 @@
         <v>60841</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>394</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5116,13 @@
         <v>227326</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="H11" s="7">
         <v>207</v>
@@ -5146,13 +5131,13 @@
         <v>214622</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="M11" s="7">
         <v>419</v>
@@ -5161,13 +5146,13 @@
         <v>441948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>402</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5167,13 @@
         <v>1153534</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="H12" s="7">
         <v>1010</v>
@@ -5197,13 +5182,13 @@
         <v>1045955</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M12" s="7">
         <v>2097</v>
@@ -5212,13 +5197,13 @@
         <v>2199488</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5218,13 @@
         <v>612525</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H13" s="7">
         <v>600</v>
@@ -5248,13 +5233,13 @@
         <v>629346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="M13" s="7">
         <v>1176</v>
@@ -5263,19 +5248,19 @@
         <v>1241871</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>43</v>
@@ -5284,13 +5269,13 @@
         <v>47419</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>409</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -5299,13 +5284,13 @@
         <v>52192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>412</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="M14" s="7">
         <v>91</v>
@@ -5314,13 +5299,13 @@
         <v>99611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5320,13 @@
         <v>2065127</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>1899</v>
@@ -5350,13 +5335,13 @@
         <v>1978632</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>3840</v>
@@ -5365,18 +5350,18 @@
         <v>4043758</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5388,13 +5373,13 @@
         <v>2141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5403,13 +5388,13 @@
         <v>9108</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>421</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>427</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5418,13 +5403,13 @@
         <v>11249</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5424,13 @@
         <v>69193</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -5454,13 +5439,13 @@
         <v>73529</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="M17" s="7">
         <v>131</v>
@@ -5469,13 +5454,13 @@
         <v>142722</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5475,13 @@
         <v>317418</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H18" s="7">
         <v>325</v>
@@ -5505,13 +5490,13 @@
         <v>340994</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M18" s="7">
         <v>619</v>
@@ -5520,13 +5505,13 @@
         <v>658412</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5526,13 @@
         <v>146513</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>441</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H19" s="7">
         <v>115</v>
@@ -5556,13 +5541,13 @@
         <v>119025</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M19" s="7">
         <v>250</v>
@@ -5571,19 +5556,19 @@
         <v>265538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
@@ -5592,13 +5577,13 @@
         <v>8873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>195</v>
+        <v>344</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5607,13 +5592,13 @@
         <v>6484</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -5625,10 +5610,10 @@
         <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>457</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5628,13 @@
         <v>544137</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -5658,13 +5643,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1025</v>
@@ -5673,13 +5658,13 @@
         <v>1093278</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5681,13 @@
         <v>33860</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>458</v>
+        <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5711,13 +5696,13 @@
         <v>55929</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>16</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>84</v>
@@ -5726,13 +5711,13 @@
         <v>89788</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5732,13 @@
         <v>339468</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H23" s="7">
         <v>332</v>
@@ -5762,13 +5747,13 @@
         <v>349596</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>462</v>
+        <v>239</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>463</v>
+        <v>237</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M23" s="7">
         <v>645</v>
@@ -5777,13 +5762,13 @@
         <v>689064</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>461</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5783,13 @@
         <v>1858080</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>467</v>
+        <v>279</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>468</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H24" s="7">
         <v>1823</v>
@@ -5813,13 +5798,13 @@
         <v>1931077</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M24" s="7">
         <v>3596</v>
@@ -5828,13 +5813,13 @@
         <v>3789157</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5834,13 @@
         <v>1055489</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7">
         <v>1032</v>
@@ -5864,13 +5849,13 @@
         <v>1099748</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="M25" s="7">
         <v>2045</v>
@@ -5879,19 +5864,19 @@
         <v>2155237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>69</v>
@@ -5900,13 +5885,13 @@
         <v>74580</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>189</v>
+        <v>480</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H26" s="7">
         <v>76</v>
@@ -5915,13 +5900,13 @@
         <v>83720</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>488</v>
+        <v>382</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>274</v>
+        <v>484</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
@@ -5930,13 +5915,13 @@
         <v>158301</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>227</v>
+        <v>409</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>490</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,13 +5936,13 @@
         <v>3361476</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>3315</v>
@@ -5966,13 +5951,13 @@
         <v>3520070</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>6515</v>
@@ -5981,13 +5966,13 @@
         <v>6881546</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{917C1085-B47A-456A-B7C5-5030D1DB14B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96211EAC-58EB-4DEB-A3F6-F88888A5F39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2CA17976-5020-4F99-82A8-8A443E837BC8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A910B9E-EB9B-4D07-A5F5-7361805A779C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="493">
   <si>
     <t>Población según la frecuencia de consumo de legumbres en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -76,1426 +76,1447 @@
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,68%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de legumbres en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de legumbres en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de legumbres en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +1928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FDBE1E-9EEB-4E23-88A7-C7C04AA051EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421FA62E-9943-44F7-8044-BFAAA3210214}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2166,16 +2187,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>332</v>
@@ -2184,13 +2205,13 @@
         <v>328950</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>376</v>
@@ -2199,7 +2220,7 @@
         <v>380857</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>44</v>
@@ -2235,13 +2256,13 @@
         <v>18094</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -2250,13 +2271,13 @@
         <v>22129</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -2265,13 +2286,13 @@
         <v>40223</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,13 +2307,13 @@
         <v>1030837</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>1291</v>
@@ -2301,13 +2322,13 @@
         <v>1315113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>2328</v>
@@ -2316,18 +2337,18 @@
         <v>2345950</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2339,13 +2360,13 @@
         <v>18560</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2354,13 +2375,13 @@
         <v>22263</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -2369,13 +2390,13 @@
         <v>40823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2411,13 @@
         <v>236977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>154</v>
@@ -2405,13 +2426,13 @@
         <v>156375</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>387</v>
@@ -2420,13 +2441,13 @@
         <v>393351</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,16 +2459,16 @@
         <v>985</v>
       </c>
       <c r="D12" s="7">
-        <v>1009887</v>
+        <v>1009886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>982</v>
@@ -2456,13 +2477,13 @@
         <v>1001712</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>1967</v>
@@ -2471,19 +2492,19 @@
         <v>2011599</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>390</v>
@@ -2492,13 +2513,13 @@
         <v>405021</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>374</v>
@@ -2507,13 +2528,13 @@
         <v>384468</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>764</v>
@@ -2522,13 +2543,13 @@
         <v>789489</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2564,13 @@
         <v>22968</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -2558,13 +2579,13 @@
         <v>19633</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -2573,13 +2594,13 @@
         <v>42601</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,16 +2612,16 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>1551</v>
@@ -2609,13 +2630,13 @@
         <v>1584450</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>3200</v>
@@ -2624,18 +2645,18 @@
         <v>3277863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2647,13 +2668,13 @@
         <v>7893</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2662,13 +2683,13 @@
         <v>8495</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2677,13 +2698,13 @@
         <v>16388</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2719,13 @@
         <v>92737</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>41</v>
@@ -2713,13 +2734,13 @@
         <v>43398</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -2728,13 +2749,13 @@
         <v>136135</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2770,13 @@
         <v>342426</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>304</v>
@@ -2764,13 +2785,13 @@
         <v>320438</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>634</v>
@@ -2779,19 +2800,19 @@
         <v>662865</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>95</v>
@@ -2800,13 +2821,13 @@
         <v>102164</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -2815,13 +2836,13 @@
         <v>98089</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>188</v>
@@ -2830,13 +2851,13 @@
         <v>200253</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2872,13 @@
         <v>6187</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2866,13 +2887,13 @@
         <v>5993</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -2881,13 +2902,13 @@
         <v>12179</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2923,13 @@
         <v>551408</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>452</v>
@@ -2917,13 +2938,13 @@
         <v>476412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>979</v>
@@ -2932,13 +2953,13 @@
         <v>1027820</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2976,13 @@
         <v>38277</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -2970,13 +2991,13 @@
         <v>47430</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -2985,13 +3006,13 @@
         <v>85707</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3027,13 @@
         <v>416492</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>295</v>
@@ -3021,13 +3042,13 @@
         <v>301649</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>705</v>
@@ -3036,13 +3057,13 @@
         <v>718141</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3078,13 @@
         <v>1937504</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>2064</v>
@@ -3072,13 +3093,13 @@
         <v>2115729</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>3966</v>
@@ -3087,19 +3108,19 @@
         <v>4053232</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>817</v>
@@ -3162,10 +3183,10 @@
         <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>47</v>
@@ -3174,13 +3195,13 @@
         <v>47754</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>95</v>
@@ -3189,13 +3210,13 @@
         <v>95003</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,28 +3231,28 @@
         <v>3275658</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>3294</v>
       </c>
       <c r="I27" s="7">
-        <v>3375974</v>
+        <v>3375975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>6507</v>
@@ -3240,18 +3261,18 @@
         <v>6651632</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93933FE5-7055-45B9-969E-80713117D1FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D93BBF-E315-4EDF-9CC1-6BB9A3FCE930}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3287,7 +3308,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3394,13 +3415,13 @@
         <v>12405</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3409,13 +3430,13 @@
         <v>12811</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -3424,13 +3445,13 @@
         <v>25215</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3466,13 @@
         <v>68385</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
         <v>76</v>
@@ -3460,13 +3481,13 @@
         <v>82443</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>139</v>
@@ -3475,13 +3496,13 @@
         <v>150828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3517,13 @@
         <v>599566</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>767</v>
@@ -3511,13 +3532,13 @@
         <v>821728</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M6" s="7">
         <v>1325</v>
@@ -3526,19 +3547,19 @@
         <v>1421295</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>249</v>
@@ -3547,13 +3568,13 @@
         <v>265072</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
         <v>348</v>
@@ -3562,13 +3583,13 @@
         <v>373415</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>597</v>
@@ -3577,13 +3598,13 @@
         <v>638487</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3619,13 @@
         <v>26334</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -3613,13 +3634,13 @@
         <v>42205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>64</v>
@@ -3628,13 +3649,13 @@
         <v>68539</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3670,13 @@
         <v>971762</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>1242</v>
@@ -3664,13 +3685,13 @@
         <v>1332602</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>2147</v>
@@ -3679,18 +3700,18 @@
         <v>2304364</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3702,13 +3723,13 @@
         <v>27521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -3717,13 +3738,13 @@
         <v>34878</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -3732,13 +3753,13 @@
         <v>62399</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3774,13 @@
         <v>153910</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -3768,13 +3789,13 @@
         <v>176682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>317</v>
@@ -3783,13 +3804,13 @@
         <v>330592</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3825,13 @@
         <v>1195736</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H12" s="7">
         <v>972</v>
@@ -3819,13 +3840,13 @@
         <v>1046954</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M12" s="7">
         <v>2104</v>
@@ -3834,19 +3855,19 @@
         <v>2242690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>507</v>
@@ -3855,13 +3876,13 @@
         <v>543410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>413</v>
@@ -3870,13 +3891,13 @@
         <v>442420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>920</v>
@@ -3885,13 +3906,13 @@
         <v>985830</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3927,13 @@
         <v>40279</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>257</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>258</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -3921,13 +3942,13 @@
         <v>49294</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -3936,13 +3957,13 @@
         <v>89573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3978,13 @@
         <v>1960856</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>1628</v>
@@ -3972,13 +3993,13 @@
         <v>1750228</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>3481</v>
@@ -3987,18 +4008,18 @@
         <v>3711084</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4010,13 +4031,13 @@
         <v>7588</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4025,13 +4046,13 @@
         <v>14185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4040,13 +4061,13 @@
         <v>21773</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4082,13 @@
         <v>59341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -4076,13 +4097,13 @@
         <v>53915</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -4091,13 +4112,13 @@
         <v>113256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4133,13 @@
         <v>289059</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H18" s="7">
         <v>268</v>
@@ -4127,13 +4148,13 @@
         <v>295817</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M18" s="7">
         <v>532</v>
@@ -4142,19 +4163,19 @@
         <v>584876</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>100</v>
@@ -4163,13 +4184,13 @@
         <v>110623</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -4178,13 +4199,13 @@
         <v>83667</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M19" s="7">
         <v>173</v>
@@ -4193,13 +4214,13 @@
         <v>194290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4235,13 @@
         <v>12540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4229,13 +4250,13 @@
         <v>9885</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -4244,13 +4265,13 @@
         <v>22425</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4286,13 @@
         <v>479150</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>411</v>
@@ -4280,13 +4301,13 @@
         <v>457470</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>848</v>
@@ -4295,13 +4316,13 @@
         <v>936620</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4339,13 @@
         <v>47513</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -4333,13 +4354,13 @@
         <v>61874</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>307</v>
+        <v>191</v>
       </c>
       <c r="M22" s="7">
         <v>100</v>
@@ -4348,13 +4369,13 @@
         <v>109387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4390,13 @@
         <v>281636</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H23" s="7">
         <v>291</v>
@@ -4384,13 +4405,13 @@
         <v>313040</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M23" s="7">
         <v>558</v>
@@ -4399,13 +4420,13 @@
         <v>594676</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4441,13 @@
         <v>2084361</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H24" s="7">
         <v>2007</v>
@@ -4435,13 +4456,13 @@
         <v>2164499</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M24" s="7">
         <v>3961</v>
@@ -4450,19 +4471,19 @@
         <v>4248860</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>327</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>856</v>
@@ -4471,13 +4492,13 @@
         <v>919105</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H25" s="7">
         <v>834</v>
@@ -4486,13 +4507,13 @@
         <v>899503</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M25" s="7">
         <v>1690</v>
@@ -4501,13 +4522,13 @@
         <v>1818608</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4543,13 @@
         <v>79153</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>58</v>
+        <v>272</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H26" s="7">
         <v>94</v>
@@ -4537,13 +4558,13 @@
         <v>101385</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M26" s="7">
         <v>167</v>
@@ -4552,13 +4573,13 @@
         <v>180538</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>337</v>
+        <v>110</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4594,13 @@
         <v>3411768</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>3281</v>
@@ -4588,13 +4609,13 @@
         <v>3540300</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>6476</v>
@@ -4603,18 +4624,18 @@
         <v>6952068</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4633,7 +4654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0471E33-1245-46E3-8076-B495DF0C848F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF4FC20-C010-40D8-985E-A383D6692ABA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4650,7 +4671,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4757,13 +4778,13 @@
         <v>7395</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4772,13 +4793,13 @@
         <v>10304</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>183</v>
+        <v>349</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4787,13 +4808,13 @@
         <v>17699</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4829,13 @@
         <v>42949</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>355</v>
       </c>
       <c r="H5" s="7">
         <v>54</v>
@@ -4823,13 +4844,13 @@
         <v>61445</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
@@ -4838,13 +4859,13 @@
         <v>104394</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4880,13 @@
         <v>387128</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H6" s="7">
         <v>488</v>
@@ -4874,13 +4895,13 @@
         <v>544128</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="M6" s="7">
         <v>880</v>
@@ -4889,19 +4910,19 @@
         <v>931256</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>302</v>
@@ -4910,13 +4931,13 @@
         <v>296452</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="H7" s="7">
         <v>317</v>
@@ -4925,13 +4946,13 @@
         <v>351377</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="M7" s="7">
         <v>619</v>
@@ -4940,13 +4961,13 @@
         <v>647828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4982,13 @@
         <v>18289</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="H8" s="7">
         <v>22</v>
@@ -4976,13 +4997,13 @@
         <v>25044</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4991,13 +5012,13 @@
         <v>43333</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>377</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5033,13 @@
         <v>752212</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>890</v>
@@ -5027,13 +5048,13 @@
         <v>992298</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>1650</v>
@@ -5042,18 +5063,18 @@
         <v>1744510</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5065,13 +5086,13 @@
         <v>24324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>98</v>
+        <v>387</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>388</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -5080,13 +5101,13 @@
         <v>36517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>390</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5095,13 +5116,13 @@
         <v>60841</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5137,13 @@
         <v>227326</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="H11" s="7">
         <v>207</v>
@@ -5131,13 +5152,13 @@
         <v>214622</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="M11" s="7">
         <v>419</v>
@@ -5146,13 +5167,13 @@
         <v>441948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>390</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5188,13 @@
         <v>1153534</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="H12" s="7">
         <v>1010</v>
@@ -5182,13 +5203,13 @@
         <v>1045955</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="M12" s="7">
         <v>2097</v>
@@ -5197,19 +5218,19 @@
         <v>2199488</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>576</v>
@@ -5218,13 +5239,13 @@
         <v>612525</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="H13" s="7">
         <v>600</v>
@@ -5233,13 +5254,13 @@
         <v>629346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="M13" s="7">
         <v>1176</v>
@@ -5248,13 +5269,13 @@
         <v>1241871</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5290,13 @@
         <v>47419</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -5284,13 +5305,13 @@
         <v>52192</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M14" s="7">
         <v>91</v>
@@ -5299,13 +5320,13 @@
         <v>99611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5341,13 @@
         <v>2065127</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>1899</v>
@@ -5335,13 +5356,13 @@
         <v>1978632</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>3840</v>
@@ -5350,18 +5371,18 @@
         <v>4043758</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5373,13 +5394,13 @@
         <v>2141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>417</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -5388,13 +5409,13 @@
         <v>9108</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>427</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -5403,13 +5424,13 @@
         <v>11249</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5445,13 @@
         <v>69193</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -5439,13 +5460,13 @@
         <v>73529</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="M17" s="7">
         <v>131</v>
@@ -5454,13 +5475,13 @@
         <v>142722</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5496,13 @@
         <v>317418</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H18" s="7">
         <v>325</v>
@@ -5490,13 +5511,13 @@
         <v>340994</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="M18" s="7">
         <v>619</v>
@@ -5505,19 +5526,19 @@
         <v>658412</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>135</v>
@@ -5526,13 +5547,13 @@
         <v>146513</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="H19" s="7">
         <v>115</v>
@@ -5541,13 +5562,13 @@
         <v>119025</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>444</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="M19" s="7">
         <v>250</v>
@@ -5556,13 +5577,13 @@
         <v>265538</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5598,13 @@
         <v>8873</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>344</v>
+        <v>454</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5592,13 +5613,13 @@
         <v>6484</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -5607,13 +5628,13 @@
         <v>15357</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5649,13 @@
         <v>544137</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>526</v>
@@ -5643,13 +5664,13 @@
         <v>549140</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>1025</v>
@@ -5658,13 +5679,13 @@
         <v>1093278</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5702,13 @@
         <v>33860</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>459</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>460</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5696,13 +5717,13 @@
         <v>55929</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>84</v>
@@ -5711,13 +5732,13 @@
         <v>89788</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5753,13 @@
         <v>339468</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H23" s="7">
         <v>332</v>
@@ -5747,13 +5768,13 @@
         <v>349596</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>239</v>
+        <v>465</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="M23" s="7">
         <v>645</v>
@@ -5762,13 +5783,13 @@
         <v>689064</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5804,13 @@
         <v>1858080</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>279</v>
+        <v>470</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>471</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="H24" s="7">
         <v>1823</v>
@@ -5798,13 +5819,13 @@
         <v>1931077</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="M24" s="7">
         <v>3596</v>
@@ -5813,19 +5834,19 @@
         <v>3789157</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>1013</v>
@@ -5834,13 +5855,13 @@
         <v>1055489</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H25" s="7">
         <v>1032</v>
@@ -5849,13 +5870,13 @@
         <v>1099748</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M25" s="7">
         <v>2045</v>
@@ -5864,13 +5885,13 @@
         <v>2155237</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5906,13 @@
         <v>74580</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>480</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>481</v>
+        <v>61</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>482</v>
+        <v>262</v>
       </c>
       <c r="H26" s="7">
         <v>76</v>
@@ -5900,13 +5921,13 @@
         <v>83720</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>382</v>
+        <v>489</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
@@ -5915,13 +5936,13 @@
         <v>158301</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>258</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5957,13 @@
         <v>3361476</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>3315</v>
@@ -5951,13 +5972,13 @@
         <v>3520070</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>6515</v>
@@ -5966,18 +5987,18 @@
         <v>6881546</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96211EAC-58EB-4DEB-A3F6-F88888A5F39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{689DC76B-ED28-4C6D-97C4-0B8AFCD78A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A910B9E-EB9B-4D07-A5F5-7361805A779C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{81708A49-BEA3-4357-9EBC-C1AC22562C96}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1928,7 +1928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421FA62E-9943-44F7-8044-BFAAA3210214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1EEC83-FF1E-4C3F-B4AC-11C351C62336}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2459,7 +2459,7 @@
         <v>985</v>
       </c>
       <c r="D12" s="7">
-        <v>1009886</v>
+        <v>1009887</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>75</v>
@@ -2612,7 +2612,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>57</v>
@@ -3075,7 +3075,7 @@
         <v>1902</v>
       </c>
       <c r="D24" s="7">
-        <v>1937504</v>
+        <v>1937503</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>164</v>
@@ -3228,7 +3228,7 @@
         <v>3213</v>
       </c>
       <c r="D27" s="7">
-        <v>3275658</v>
+        <v>3275657</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>57</v>
@@ -3291,7 +3291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D93BBF-E315-4EDF-9CC1-6BB9A3FCE930}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E506DEE-1EC4-41F1-8FA0-90EB10C2F5D3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4654,7 +4654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF4FC20-C010-40D8-985E-A383D6692ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D668C9A9-F5F9-40A8-A9F3-4A42C24C6846}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
